--- a/us/readme/09072017-网站字号规范对照表格（第二版）修订版.xlsx
+++ b/us/readme/09072017-网站字号规范对照表格（第二版）修订版.xlsx
@@ -14,238 +14,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>1920px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1600px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1400px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>22px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20px/1.5vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14px/1.1vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12px/0.9vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Class名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>36px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>26px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>24px/1.85vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1000-768px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1300-1000px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>24px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16px/1.23vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13px/1vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>32px/3.2vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>28px/2.8vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>22px/2.2vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一级标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二级标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三级标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>四级标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他特殊标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>常规正文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释及表格文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.text18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18px/1.8vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16px/1.6vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14px/1.4vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>767px分辨率时：可根据实际情况递减字号，依次为28px/26px/24px/22px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>767px分辨率时：可根据实际情况递减字号，依次为26px/24px/22px/20px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>767px分辨率时：可根据实际情况递减字号，依次为24px/22px/20px/18px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正文字号对照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>标题字号对照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Banner字号对照（此部分后续完善...）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.text16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>767px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,11 +285,11 @@
       </rPr>
       <t>（1920px-768px根据设计稿等比例缩放,767px以内特殊定义）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -314,7 +314,7 @@
       </rPr>
       <t>44px/5.74vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -339,7 +339,7 @@
       </rPr>
       <t>32px/4.17vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -364,7 +364,7 @@
       </rPr>
       <t>：26px/3.39vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -389,7 +389,7 @@
       </rPr>
       <t>24px/3.13vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -442,59 +442,59 @@
 样式标准化设计的好处是：相同元素的样式具有统一性，便于管理及后期维护；灵活化设计使网站架构和修改变得简洁方便。如果是整站的同一级字体字号需要变大或变小，修改class名称即可。其他元素的标准化设计思路也同理，随着二级页面的制作，会总结出其他需要标准化定义的样式。
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>140px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>70px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>117px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>58px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>102px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>51px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>95px/7.3vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>47px/3.6vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正文（用标题字号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -519,7 +519,7 @@
       </rPr>
       <t>38px/4.95vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -544,15 +544,15 @@
       </rPr>
       <t>36px/4.69vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>120px/12vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>60px/6.0vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -577,7 +577,7 @@
       </rPr>
       <t>28px/3.65vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,7 +613,7 @@
       </rPr>
       <t>px/21.12vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -649,31 +649,31 @@
       </rPr>
       <t>px/10.17vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.title60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>60px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>50px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>44px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>41px/3.2vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>52px/5.2vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -709,19 +709,19 @@
       </rPr>
       <t>px/8.87vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>价格标题($)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>价格标题(.99)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>价格标题(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -757,23 +757,110 @@
       </rPr>
       <t>px/7.82vw</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注：Banner的字号,PC端和手机端同用一个字号，即class="title60 mTitle60"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊标题（计划）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px/2.15vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36px/3.6vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle50：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/6.52vw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品计划页大标题字号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,31 +970,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1217,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,30 +1485,32 @@
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1434,28 +1523,28 @@
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1470,28 +1559,28 @@
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1506,32 +1595,30 @@
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1544,31 +1631,31 @@
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1585,28 +1672,28 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1618,80 +1705,80 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>50</v>
@@ -1706,82 +1793,84 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1792,15 +1881,32 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+    <row r="19" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1811,35 +1917,54 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
     <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/us/readme/09072017-网站字号规范对照表格（第二版）修订版.xlsx
+++ b/us/readme/09072017-网站字号规范对照表格（第二版）修订版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -389,6 +389,400 @@
       </rPr>
       <t>24px/3.13vw</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>140px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95px/7.3vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47px/3.6vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文（用标题字号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle38：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38px/4.95vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle36：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36px/4.69vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120px/12vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60px/6.0vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle28：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28px/3.65vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle162：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/21.12vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle78：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/10.17vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41px/3.2vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52px/5.2vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle68：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/8.87vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格标题($)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格标题(.99)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格标题(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle60：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/7.82vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：Banner的字号,PC端和手机端同用一个字号，即class="title60 mTitle60"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊标题（计划）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px/2.15vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36px/3.6vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle50：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/6.52vw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品计划页大标题字号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -439,407 +833,10 @@
       </rPr>
       <t xml:space="preserve">
 4.在手机端设备分辨率767px时，字号小的文字（主要是字号为20px/18px/16px的文字）可能需要再次减小以利于排版，具体的递减规则如表格所示。
+5.在网页主体内容中：一至四级标题都需要加粗；正文只有特殊情况才加粗，样式为“.fwb”。在网页Banner中：大标题（.title60）加粗，正文不加粗（.title36）。
 样式标准化设计的好处是：相同元素的样式具有统一性，便于管理及后期维护；灵活化设计使网站架构和修改变得简洁方便。如果是整站的同一级字体字号需要变大或变小，修改class名称即可。其他元素的标准化设计思路也同理，随着二级页面的制作，会总结出其他需要标准化定义的样式。
 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.title140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>140px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.title70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>117px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>51px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95px/7.3vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47px/3.6vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.title36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正文（用标题字号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle38：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>38px/4.95vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle36：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36px/4.69vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120px/12vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60px/6.0vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle28：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>28px/3.65vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle162：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>162</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px/21.12vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle78：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>78</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px/10.17vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.title60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>44px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>41px/3.2vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>52px/5.2vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle68：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px/8.87vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格标题($)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格标题(.99)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格标题(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle60：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px/7.82vw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：Banner的字号,PC端和手机端同用一个字号，即class="title60 mTitle60"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.title42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>42px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊标题（计划）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28px/2.15vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36px/3.6vw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle50：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px/6.52vw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品计划页大标题字号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1306,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1377,28 +1374,28 @@
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="1"/>
@@ -1413,28 +1410,28 @@
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
@@ -1449,28 +1446,28 @@
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="1"/>
@@ -1485,31 +1482,31 @@
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1580,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1652,7 +1649,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>49</v>
@@ -1845,31 +1842,31 @@
     </row>
     <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1883,10 +1880,10 @@
     </row>
     <row r="19" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -1904,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="21" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>

--- a/us/readme/09072017-网站字号规范对照表格（第二版）修订版.xlsx
+++ b/us/readme/09072017-网站字号规范对照表格（第二版）修订版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -836,6 +836,85 @@
 5.在网页主体内容中：一至四级标题都需要加粗；正文只有特殊情况才加粗，样式为“.fwb”。在网页Banner中：大标题（.title60）加粗，正文不加粗（.title36）。
 样式标准化设计的好处是：相同元素的样式具有统一性，便于管理及后期维护；灵活化设计使网站架构和修改变得简洁方便。如果是整站的同一级字体字号需要变大或变小，修改class名称即可。其他元素的标准化设计思路也同理，随着二级页面的制作，会总结出其他需要标准化定义的样式。
 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大标题（特殊）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41px/3.2vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34px/2.62vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48px/4.8vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle50：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px/6.52vw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1301,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1857,7 +1936,7 @@
         <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>88</v>
@@ -1878,30 +1957,30 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
@@ -1914,15 +1993,32 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+    <row r="20" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="11"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1933,33 +2029,52 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I18:I20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
